--- a/app/static/images/expert (1).xlsx
+++ b/app/static/images/expert (1).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CFC195-434A-4493-9EA4-E3A6993FA2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4E3178-215A-4CE6-AD5A-6F4BAAA73A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="1230" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="112">
   <si>
     <t>id</t>
   </si>
@@ -26,32 +26,338 @@
     <t>мыло</t>
   </si>
   <si>
-    <t>afqa</t>
-  </si>
-  <si>
     <t>вес</t>
   </si>
   <si>
-    <t>a@y.r</t>
-  </si>
-  <si>
-    <t>b@y.t</t>
-  </si>
-  <si>
-    <t>c@y.r</t>
-  </si>
-  <si>
-    <t>d@y.r</t>
-  </si>
-  <si>
-    <t>e@y.t</t>
+    <t>Николаев Николай Николаевич 1</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 2</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 3</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 4</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 5</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 6</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 7</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 8</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 9</t>
+  </si>
+  <si>
+    <t>ooa@y.r</t>
+  </si>
+  <si>
+    <t>oob@y.t</t>
+  </si>
+  <si>
+    <t>ooc@y.r</t>
+  </si>
+  <si>
+    <t>d@y.roo</t>
+  </si>
+  <si>
+    <t>e@y.too</t>
+  </si>
+  <si>
+    <t>f@y.roo</t>
+  </si>
+  <si>
+    <t>g@y.too</t>
+  </si>
+  <si>
+    <t>h@y.roo</t>
+  </si>
+  <si>
+    <t>m@y.roo</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 10</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 11</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 12</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 13</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 14</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 15</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 16</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 17</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 18</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 19</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 20</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 21</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 22</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 23</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 24</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 25</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 26</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 27</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 28</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 29</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 30</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 31</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 32</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 33</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 34</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 35</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 36</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 37</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 38</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 39</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 40</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 41</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 42</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 43</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 44</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 45</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 46</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 47</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 48</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 49</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 50</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 51</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 52</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 53</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 54</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 55</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 56</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 57</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 58</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 59</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 60</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 61</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 62</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 63</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 64</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 65</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 66</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 67</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 68</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 69</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 70</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 71</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 72</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 73</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 74</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 75</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 76</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 77</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 78</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 79</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 80</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 81</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 82</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 83</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 84</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 85</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 86</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 87</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 88</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 89</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 90</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 91</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 92</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 93</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 94</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 95</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 96</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 97</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 98</t>
+  </si>
+  <si>
+    <t>Николаев Николай Николаевич 99</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +369,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -89,19 +401,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -117,9 +426,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -157,7 +466,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -263,7 +572,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -437,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,75 +769,1204 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="1">
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>81</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>83</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>84</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>85</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>86</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>87</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>90</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>91</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D81">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>93</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>94</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>95</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>96</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>97</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>98</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>99</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>100</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>101</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>102</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D91">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>103</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>104</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>106</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>107</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D96">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>108</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>109</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>110</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>111</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{30850003-FF77-475C-B899-BA700B29D0AE}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{A2F05B2C-96D7-4A56-BFFE-E34FCE99ACD7}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{E7D50CF7-4570-4F7D-B652-8B3EC8927DC7}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{6AB5F0E6-B4C3-4275-83AC-58108F9087FF}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{18506A41-DB28-426D-900D-484C0F392306}"/>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{E1F44B2B-EBAB-4D90-9DB8-E888CD348922}"/>
+    <hyperlink ref="C8" r:id="rId2" xr:uid="{4E36D6F4-EB1A-43C7-885C-452CC5153032}"/>
+    <hyperlink ref="C9" r:id="rId3" xr:uid="{7DAE2E36-8786-47EB-82F8-0A1614423EE3}"/>
+    <hyperlink ref="C10" r:id="rId4" xr:uid="{36AD7C53-CA25-4C69-BC21-0869B5F2EF66}"/>
+    <hyperlink ref="C2" r:id="rId5" xr:uid="{DDFA982D-81CD-498D-A0ED-5C9D6CB17DBF}"/>
+    <hyperlink ref="C3" r:id="rId6" xr:uid="{C487A37E-1CFA-46AA-BC19-658A35F886CE}"/>
+    <hyperlink ref="C4" r:id="rId7" xr:uid="{D2C2B866-60F9-4C1D-AC65-430C192BC00A}"/>
+    <hyperlink ref="C5" r:id="rId8" xr:uid="{54E63EAE-89E4-498A-A255-256CB36F3DBE}"/>
+    <hyperlink ref="C6" r:id="rId9" xr:uid="{9ED8FF94-5AAB-4553-A6B1-BA2D0700A51E}"/>
+    <hyperlink ref="C16" r:id="rId10" xr:uid="{C9389581-EE89-43B5-8ED7-AA9A7C67FE20}"/>
+    <hyperlink ref="C25" r:id="rId11" xr:uid="{0DE5BA31-A698-4C58-92ED-E0D607554EB6}"/>
+    <hyperlink ref="C34" r:id="rId12" xr:uid="{60AB8501-3F61-4AF5-BB5D-80C5E38AD5EF}"/>
+    <hyperlink ref="C43" r:id="rId13" xr:uid="{AEE82EEC-74E5-4E6A-B1CD-02EBDE15C2CD}"/>
+    <hyperlink ref="C52" r:id="rId14" xr:uid="{CE46062C-C80A-4141-AADC-369D7BB119FC}"/>
+    <hyperlink ref="C61" r:id="rId15" xr:uid="{03B063FB-4749-4E94-9BBE-84C82A518C98}"/>
+    <hyperlink ref="C70" r:id="rId16" xr:uid="{86567A14-4EB5-4FE6-8B54-A65353E0D233}"/>
+    <hyperlink ref="C79" r:id="rId17" xr:uid="{1E299FBD-FF62-45DC-9034-2FC0B8205914}"/>
+    <hyperlink ref="C88" r:id="rId18" xr:uid="{FFB522B0-6574-4F94-9AAD-AB1496B80666}"/>
+    <hyperlink ref="C97" r:id="rId19" xr:uid="{429B6574-FC0F-4307-AD5E-18E421E5ED3A}"/>
+    <hyperlink ref="C17" r:id="rId20" xr:uid="{9F4A7A8C-A2F3-4496-B58A-024A3FB46C96}"/>
+    <hyperlink ref="C26" r:id="rId21" xr:uid="{6479E0BA-FA8A-4D38-A2F7-91E196EBA805}"/>
+    <hyperlink ref="C35" r:id="rId22" xr:uid="{6BCEB309-5A04-47CB-9166-30B731CE5635}"/>
+    <hyperlink ref="C44" r:id="rId23" xr:uid="{0DBB6DF7-79C4-4DDA-8DA6-7C60692DE3E3}"/>
+    <hyperlink ref="C53" r:id="rId24" xr:uid="{EC23D660-AC0C-42A9-A99E-7435FFEE35F7}"/>
+    <hyperlink ref="C62" r:id="rId25" xr:uid="{67DB91A2-6FBF-4A97-8BCA-7EFAAE3D15F2}"/>
+    <hyperlink ref="C71" r:id="rId26" xr:uid="{5911E360-3FB2-411E-AA03-E1E0BF5EF744}"/>
+    <hyperlink ref="C80" r:id="rId27" xr:uid="{7877FB33-1000-4B0F-BEAB-0DAC14105C91}"/>
+    <hyperlink ref="C89" r:id="rId28" xr:uid="{D39BAD59-02A8-440E-8F91-721893561230}"/>
+    <hyperlink ref="C98" r:id="rId29" xr:uid="{7D0AFFF7-48BF-442C-BE4F-0AE046D94294}"/>
+    <hyperlink ref="C18" r:id="rId30" xr:uid="{205CBDDC-1E36-4F6A-8907-C7C82CCD68B7}"/>
+    <hyperlink ref="C27" r:id="rId31" xr:uid="{AA4B2ABE-B526-485B-B802-8223018EC9F3}"/>
+    <hyperlink ref="C36" r:id="rId32" xr:uid="{AFCFC021-C414-4C7A-9F9F-3A81E2A39F30}"/>
+    <hyperlink ref="C45" r:id="rId33" xr:uid="{6750A18E-55DD-4372-AE16-60A6501CFC3D}"/>
+    <hyperlink ref="C54" r:id="rId34" xr:uid="{86B1D285-20AC-4C72-9F61-3841A7727BCB}"/>
+    <hyperlink ref="C63" r:id="rId35" xr:uid="{947F0BFC-426D-453D-A04B-DD0E3771320B}"/>
+    <hyperlink ref="C72" r:id="rId36" xr:uid="{D1411ADC-3756-4BD1-B5A7-174F3DAB652D}"/>
+    <hyperlink ref="C81" r:id="rId37" xr:uid="{676E96D1-E27A-4A06-AF8D-EEB1E0C3F80D}"/>
+    <hyperlink ref="C90" r:id="rId38" xr:uid="{9B0C23B6-0099-48F5-A7CF-0EA5405EDC11}"/>
+    <hyperlink ref="C99" r:id="rId39" xr:uid="{BF447EFA-A117-4E59-9513-1B2F3CE2E63D}"/>
+    <hyperlink ref="C19" r:id="rId40" xr:uid="{FDAEB6AA-D239-44D9-AC15-74607B99049B}"/>
+    <hyperlink ref="C28" r:id="rId41" xr:uid="{C32C277C-7F2B-428D-9F12-9481E6C8601E}"/>
+    <hyperlink ref="C37" r:id="rId42" xr:uid="{769ADBF8-245E-4A87-97E2-0EDB1ADFBE4C}"/>
+    <hyperlink ref="C46" r:id="rId43" xr:uid="{BDE9DBAE-BEAB-4D5B-A4E0-9DEBD4DC031D}"/>
+    <hyperlink ref="C55" r:id="rId44" xr:uid="{5EAFD131-EEB3-4909-9FA9-112710BB4DF2}"/>
+    <hyperlink ref="C64" r:id="rId45" xr:uid="{B02340A1-307D-4208-B213-6D87CCC44E12}"/>
+    <hyperlink ref="C73" r:id="rId46" xr:uid="{2E7EC476-6364-4545-9186-CC0C8C5A8487}"/>
+    <hyperlink ref="C82" r:id="rId47" xr:uid="{E4CF2087-F0F3-4279-9B29-5AC686317D8D}"/>
+    <hyperlink ref="C91" r:id="rId48" xr:uid="{9C5A9E0D-B3DD-472C-8A7E-4F0324436F4C}"/>
+    <hyperlink ref="C100" r:id="rId49" xr:uid="{F85B9012-89B0-4DB9-8F99-2CD3E91CFD4A}"/>
+    <hyperlink ref="C11" r:id="rId50" xr:uid="{01863FB9-466F-4821-AEEF-C79A92B696C0}"/>
+    <hyperlink ref="C20" r:id="rId51" xr:uid="{87BA5D11-7D13-4BBE-B669-148E736FA0A6}"/>
+    <hyperlink ref="C29" r:id="rId52" xr:uid="{EC17A301-292A-46F0-AA9F-A79E4FE03A84}"/>
+    <hyperlink ref="C38" r:id="rId53" xr:uid="{D3B84D42-517E-48F9-ADD9-83ECD11BDDE1}"/>
+    <hyperlink ref="C47" r:id="rId54" xr:uid="{AEF831E6-49B3-4A8E-AE3A-957E3268447E}"/>
+    <hyperlink ref="C56" r:id="rId55" xr:uid="{B71F6284-F4BE-4D82-BB41-D68DBEF4890B}"/>
+    <hyperlink ref="C65" r:id="rId56" xr:uid="{50DA805F-992F-4772-9748-F098CE284FC7}"/>
+    <hyperlink ref="C74" r:id="rId57" xr:uid="{B116DF49-3B0F-4019-8AB6-CC4AD112C611}"/>
+    <hyperlink ref="C83" r:id="rId58" xr:uid="{D511BA6B-0E2E-4A98-B6A4-B2F6BE54D340}"/>
+    <hyperlink ref="C92" r:id="rId59" xr:uid="{DA3C21C7-9AE4-450D-BB60-B6E3B350E6EF}"/>
+    <hyperlink ref="C12" r:id="rId60" xr:uid="{05933FEC-ED3F-4195-8F29-6893333D2BFC}"/>
+    <hyperlink ref="C21" r:id="rId61" xr:uid="{A6C0DE33-0C9B-4F45-91BA-172CE44B858E}"/>
+    <hyperlink ref="C30" r:id="rId62" xr:uid="{B5DB3E61-BF2F-4F18-8D8F-BCDEC96D60EA}"/>
+    <hyperlink ref="C39" r:id="rId63" xr:uid="{4BC09FC3-8B00-4D04-A097-1DE06CED63B1}"/>
+    <hyperlink ref="C48" r:id="rId64" xr:uid="{13867EBD-3C86-4D53-9D5A-DC4CF8A06135}"/>
+    <hyperlink ref="C57" r:id="rId65" xr:uid="{A1FB74B4-DFBB-49AF-B9E4-173E5EB6A52D}"/>
+    <hyperlink ref="C66" r:id="rId66" xr:uid="{B88CA715-1F2C-485E-B879-F8A2F6B73C0A}"/>
+    <hyperlink ref="C75" r:id="rId67" xr:uid="{F8874802-FA63-4E52-BDAE-40A0552B943B}"/>
+    <hyperlink ref="C84" r:id="rId68" xr:uid="{5F98DF1D-8246-40E8-A424-5F5C3F2927A0}"/>
+    <hyperlink ref="C93" r:id="rId69" xr:uid="{6D6E43A9-9BE5-4920-ACBF-6F01434037D7}"/>
+    <hyperlink ref="C13" r:id="rId70" xr:uid="{FE40010E-FEDB-4F9A-907E-8F84C51C49E2}"/>
+    <hyperlink ref="C22" r:id="rId71" xr:uid="{A387E848-4A2B-403E-A74E-22C15F1338F7}"/>
+    <hyperlink ref="C31" r:id="rId72" xr:uid="{150E9459-EE98-421D-A16B-FFEEB63F23CE}"/>
+    <hyperlink ref="C40" r:id="rId73" xr:uid="{F163F61F-21BF-4AAB-B462-750AC71B55C7}"/>
+    <hyperlink ref="C49" r:id="rId74" xr:uid="{E72A6A02-8484-40E2-B327-4AF9FA8C4869}"/>
+    <hyperlink ref="C58" r:id="rId75" xr:uid="{B1BF1188-749E-4F92-BEC6-6E03A49796A4}"/>
+    <hyperlink ref="C67" r:id="rId76" xr:uid="{6F8FB950-6C27-47D6-AADE-96B855F7245A}"/>
+    <hyperlink ref="C76" r:id="rId77" xr:uid="{E3ECC6DE-C3F5-4A24-B9D4-1770CA08B59E}"/>
+    <hyperlink ref="C85" r:id="rId78" xr:uid="{38736B3F-23C8-42F1-97F4-1FEC200F792D}"/>
+    <hyperlink ref="C94" r:id="rId79" xr:uid="{DDEBD4B1-8B71-4D54-8F22-DCAF678B0E6F}"/>
+    <hyperlink ref="C14" r:id="rId80" xr:uid="{3B20EF5E-576C-4A4C-B4DC-28097877B3D3}"/>
+    <hyperlink ref="C23" r:id="rId81" xr:uid="{DF67ABC4-8682-40FF-BD2A-6D6720AF6244}"/>
+    <hyperlink ref="C32" r:id="rId82" xr:uid="{792EF692-8360-4C9F-B672-0CED5926FCA0}"/>
+    <hyperlink ref="C41" r:id="rId83" xr:uid="{1A1D5BC9-E310-4A44-B091-B0B06A916DA5}"/>
+    <hyperlink ref="C50" r:id="rId84" xr:uid="{2AF9FF7D-6860-45FE-83FF-16A927EFA1A2}"/>
+    <hyperlink ref="C59" r:id="rId85" xr:uid="{5B9298A3-E6AA-4FED-95E6-87C8BE32F250}"/>
+    <hyperlink ref="C68" r:id="rId86" xr:uid="{0521DCC6-B4E4-46CE-8D28-E4B66793475E}"/>
+    <hyperlink ref="C77" r:id="rId87" xr:uid="{85C25851-1AC5-4E42-BA07-04B0A72DA7F3}"/>
+    <hyperlink ref="C86" r:id="rId88" xr:uid="{A3A0902A-6866-4A26-8F8F-74DF653506A9}"/>
+    <hyperlink ref="C95" r:id="rId89" xr:uid="{267280B0-C994-49CB-A421-833FD3E8F4A2}"/>
+    <hyperlink ref="C15" r:id="rId90" xr:uid="{C216B439-9060-4CC2-8A97-10CE7DE22EE7}"/>
+    <hyperlink ref="C24" r:id="rId91" xr:uid="{9F6DCB01-CC88-4FEE-99D5-70D854AE5FF6}"/>
+    <hyperlink ref="C33" r:id="rId92" xr:uid="{933E196A-BA3D-4CA2-87AC-AF340D5ED97C}"/>
+    <hyperlink ref="C42" r:id="rId93" xr:uid="{4308FA4A-189F-43CF-9AA8-F114EA636F27}"/>
+    <hyperlink ref="C51" r:id="rId94" xr:uid="{0A55516B-6F53-40AA-AC0B-1C0C18119713}"/>
+    <hyperlink ref="C60" r:id="rId95" xr:uid="{79ED58DF-5DD4-4D0B-9B95-8A296CD2A344}"/>
+    <hyperlink ref="C69" r:id="rId96" xr:uid="{10960188-B284-4296-8AC5-6D715F40EB2F}"/>
+    <hyperlink ref="C78" r:id="rId97" xr:uid="{004A70E4-BE72-47DE-AD07-F2AB364288A3}"/>
+    <hyperlink ref="C87" r:id="rId98" xr:uid="{08D90ADF-093A-4F91-86EF-CC4A7DCB3749}"/>
+    <hyperlink ref="C96" r:id="rId99" xr:uid="{E9672D71-FB3C-4316-B6CE-32F5CCC97765}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId100"/>
 </worksheet>
 </file>